--- a/global_data/day_data/000333.xlsx
+++ b/global_data/day_data/000333.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2758"/>
+  <dimension ref="A1:I2761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -80390,6 +80392,93 @@
         <v>0.002477659441880329</v>
       </c>
     </row>
+    <row r="2759" spans="1:9">
+      <c r="A2759" s="3">
+        <v>45775</v>
+      </c>
+      <c r="B2759">
+        <v>73.39</v>
+      </c>
+      <c r="C2759">
+        <v>73.58</v>
+      </c>
+      <c r="D2759">
+        <v>72.8</v>
+      </c>
+      <c r="E2759">
+        <v>73.23</v>
+      </c>
+      <c r="F2759">
+        <v>23966015</v>
+      </c>
+      <c r="G2759">
+        <v>1755320152</v>
+      </c>
+      <c r="H2759">
+        <v>6900560146</v>
+      </c>
+      <c r="I2759">
+        <v>0.003473053562744789</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:9">
+      <c r="A2760" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B2760">
+        <v>73.26000000000001</v>
+      </c>
+      <c r="C2760">
+        <v>74.37</v>
+      </c>
+      <c r="D2760">
+        <v>72.86</v>
+      </c>
+      <c r="E2760">
+        <v>74.2</v>
+      </c>
+      <c r="F2760">
+        <v>23497383</v>
+      </c>
+      <c r="G2760">
+        <v>1733740168</v>
+      </c>
+      <c r="H2760">
+        <v>6900560146</v>
+      </c>
+      <c r="I2760">
+        <v>0.003405141394734537</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:9">
+      <c r="A2761" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B2761">
+        <v>75</v>
+      </c>
+      <c r="C2761">
+        <v>75.12</v>
+      </c>
+      <c r="D2761">
+        <v>73.45</v>
+      </c>
+      <c r="E2761">
+        <v>73.62</v>
+      </c>
+      <c r="F2761">
+        <v>47810026</v>
+      </c>
+      <c r="G2761">
+        <v>3548715615</v>
+      </c>
+      <c r="H2761">
+        <v>6900436496</v>
+      </c>
+      <c r="I2761">
+        <v>0.006928550973219478</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
